--- a/tests/data/minimum_mmi.xlsx
+++ b/tests/data/minimum_mmi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,12 +35,6 @@
     <t>network</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>ACAM</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>intensity</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,13 +543,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -558,13 +558,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>20.043185999999999</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>16.874293999999999</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>17.213360999999999</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>16.247374000000001</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>19.325265999999999</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>16.997788</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>17.798341000000001</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>16.565152999999999</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>17.067336999999998</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>17.065038999999999</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>15.666836999999999</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>17.535395999999999</v>
@@ -810,13 +810,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>19.044222999999999</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>18.904050999999999</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>17.98762</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>19.421758000000001</v>
@@ -894,13 +894,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>16.914259999999999</v>
@@ -915,13 +915,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>19.529875000000001</v>

--- a/tests/data/minimum_mmi.xlsx
+++ b/tests/data/minimum_mmi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>station</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>UNAM</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,74 +539,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1"/>
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20.043185999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-100.71677699999999</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.72367753123320733</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>16.874293999999999</v>
+        <v>20.043185999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>-99.886505</v>
+        <v>-100.71677699999999</v>
       </c>
       <c r="F3" s="4">
-        <v>4.0075548582081897</v>
+        <v>0.72367753123320733</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -609,52 +602,52 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>17.213360999999999</v>
+        <v>16.874293999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>-100.43226900000001</v>
+        <v>-99.886505</v>
       </c>
       <c r="F4" s="4">
-        <v>2.9940900430465254</v>
+        <v>4.0075548582081897</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>16.247374000000001</v>
+        <v>17.213360999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>-93.912575000000004</v>
+        <v>-100.43226900000001</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>2.9940900430465254</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>19.325265999999999</v>
+        <v>16.247374000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-103.760813</v>
+        <v>-93.912575000000004</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -663,28 +656,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>16.997788</v>
+        <v>19.325265999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-100.089963</v>
+        <v>-103.760813</v>
       </c>
       <c r="F7" s="4">
-        <v>2.9623072177545042</v>
+        <v>0</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -693,40 +686,40 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>17.798341000000001</v>
+        <v>16.997788</v>
       </c>
       <c r="E8" s="1">
-        <v>-98.559717000000006</v>
+        <v>-100.089963</v>
       </c>
       <c r="F8" s="4">
-        <v>6.5085773089009038</v>
+        <v>2.9623072177545042</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>16.565152999999999</v>
+        <v>17.798341000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>-94.616946999999996</v>
+        <v>-98.559717000000006</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1827263333975842</v>
+        <v>6.5085773089009038</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -735,19 +728,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>17.067336999999998</v>
+        <v>16.565152999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-96.723804000000001</v>
+        <v>-94.616946999999996</v>
       </c>
       <c r="F10" s="4">
-        <v>2.9439815281494539</v>
+        <v>1.1827263333975842</v>
       </c>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -756,19 +749,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>17.065038999999999</v>
+        <v>17.067336999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>-96.703157000000004</v>
+        <v>-96.723804000000001</v>
       </c>
       <c r="F11" s="4">
-        <v>3.2904002934162691</v>
+        <v>2.9439815281494539</v>
       </c>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -777,170 +770,191 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>15.666836999999999</v>
+        <v>17.065038999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>-96.490505999999996</v>
+        <v>-96.703157000000004</v>
       </c>
       <c r="F12" s="4">
-        <v>0.79309982225129416</v>
+        <v>3.2904002934162691</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>17.535395999999999</v>
+        <v>15.666836999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>-101.262608</v>
+        <v>-96.490505999999996</v>
       </c>
       <c r="F13" s="4">
-        <v>2.0047614148547304</v>
+        <v>0.79309982225129416</v>
       </c>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>19.044222999999999</v>
+        <v>17.535395999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>-98.168465999999995</v>
+        <v>-101.262608</v>
       </c>
       <c r="F14" s="4">
-        <v>6.2143501408750526</v>
+        <v>2.0047614148547304</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>18.904050999999999</v>
+        <v>19.044222999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>-100.159615</v>
+        <v>-98.168465999999995</v>
       </c>
       <c r="F15" s="4">
-        <v>5.3695607051488423</v>
+        <v>6.2143501408750526</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>17.98762</v>
+        <v>18.904050999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>-101.81062300000001</v>
+        <v>-100.159615</v>
       </c>
       <c r="F16" s="4">
-        <v>1.2090871001382097</v>
+        <v>5.3695607051488423</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>19.421758000000001</v>
+        <v>17.98762</v>
       </c>
       <c r="E17" s="1">
-        <v>-102.07405900000001</v>
+        <v>-101.81062300000001</v>
       </c>
       <c r="F17" s="4">
-        <v>1.1985951953533427</v>
+        <v>1.2090871001382097</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>16.914259999999999</v>
+        <v>19.421758000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>-99.818849999999998</v>
+        <v>-102.07405900000001</v>
       </c>
       <c r="F18" s="4">
-        <v>2.0971117481552666</v>
+        <v>1.1985951953533427</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16.914259999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-99.818849999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.0971117481552666</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
         <v>19.529875000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>-96.901972999999998</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>1.6999910326326615</v>
       </c>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="6"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n"/>
-    <hyperlink ref="B19" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz"/>
+    <hyperlink ref="B18" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n"/>
+    <hyperlink ref="B20" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/data/minimum_mmi.xlsx
+++ b/tests/data/minimum_mmi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{931F0CDC-0EF1-8340-8F59-E5152908F3CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360"/>
+    <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,6 @@
     <t>station</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>ACAM</t>
   </si>
   <si>
@@ -132,12 +127,18 @@
   </si>
   <si>
     <t>UNAM</t>
+  </si>
+  <si>
+    <t>netid</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -526,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -551,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -572,13 +573,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>20.043185999999999</v>
@@ -593,13 +594,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>16.874293999999999</v>
@@ -614,13 +615,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>17.213360999999999</v>
@@ -635,13 +636,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>16.247374000000001</v>
@@ -656,13 +657,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>19.325265999999999</v>
@@ -677,13 +678,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>16.997788</v>
@@ -698,13 +699,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>17.798341000000001</v>
@@ -719,13 +720,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>16.565152999999999</v>
@@ -740,13 +741,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>17.067336999999998</v>
@@ -761,13 +762,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>17.065038999999999</v>
@@ -782,13 +783,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>15.666836999999999</v>
@@ -803,13 +804,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>17.535395999999999</v>
@@ -824,13 +825,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>19.044222999999999</v>
@@ -845,13 +846,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>18.904050999999999</v>
@@ -866,13 +867,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>17.98762</v>
@@ -887,13 +888,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>19.421758000000001</v>
@@ -908,13 +909,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>16.914259999999999</v>
@@ -929,13 +930,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>19.529875000000001</v>
@@ -953,8 +954,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n"/>
-    <hyperlink ref="B20" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz"/>
+    <hyperlink ref="B18" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/data/minimum_mmi.xlsx
+++ b/tests/data/minimum_mmi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{931F0CDC-0EF1-8340-8F59-E5152908F3CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E79C5D-6BAA-7844-8A3F-4DA586EC7D37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>ACAM</t>
   </si>
   <si>
@@ -114,25 +111,28 @@
     <t>Veracruz</t>
   </si>
   <si>
-    <t>intensity</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
     <t>UNAM</t>
   </si>
   <si>
-    <t>netid</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NETID</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>INTENSITY</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,30 +541,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -573,13 +573,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>20.043185999999999</v>
@@ -594,13 +594,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>16.874293999999999</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>17.213360999999999</v>
@@ -636,13 +636,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>16.247374000000001</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>19.325265999999999</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>16.997788</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>17.798341000000001</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>16.565152999999999</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>17.067336999999998</v>
@@ -762,13 +762,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>17.065038999999999</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>15.666836999999999</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>17.535395999999999</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>19.044222999999999</v>
@@ -846,13 +846,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>18.904050999999999</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>17.98762</v>
@@ -888,13 +888,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>19.421758000000001</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>16.914259999999999</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>19.529875000000001</v>
